--- a/fromEMtest.xlsx
+++ b/fromEMtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/kencho/mint_doi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F705C70C-A4F6-EF48-B820-B7603592EFBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A296D-7936-654C-8EF2-6E3A025B68A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" xr2:uid="{80ED59B1-7B30-7948-BCF7-EF582829E972}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="117">
   <si>
     <t>Manuscript Number</t>
   </si>
@@ -826,7 +826,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1373,39 +1373,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="B12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
